--- a/reference/내,외국인 비교.xlsx
+++ b/reference/내,외국인 비교.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB069B1-481D-40DC-B8AE-6E4C47816B99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE0534F-8F82-4B68-A69C-84FA9EC7D939}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -362,7 +362,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/reference/내,외국인 비교.xlsx
+++ b/reference/내,외국인 비교.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE0534F-8F82-4B68-A69C-84FA9EC7D939}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1195A87-DA9E-4489-B92F-7184ECCD48F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -359,15 +359,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -378,7 +381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2016</v>
       </c>
@@ -388,8 +391,20 @@
       <c r="C2">
         <v>3990826</v>
       </c>
+      <c r="D2">
+        <f>SUM(B2:C2)</f>
+        <v>16241085</v>
+      </c>
+      <c r="E2">
+        <f>B2/D2</f>
+        <v>0.75427589967049613</v>
+      </c>
+      <c r="F2">
+        <f>C2/D2</f>
+        <v>0.24572410032950384</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2017</v>
       </c>
@@ -399,8 +414,20 @@
       <c r="C3">
         <v>1206814</v>
       </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D4" si="0">SUM(B3:C3)</f>
+        <v>14729446</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E4" si="1">B3/D3</f>
+        <v>0.91806793004977916</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F4" si="2">C3/D3</f>
+        <v>8.1932069950220801E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2018</v>
       </c>
@@ -409,10 +436,23 @@
       </c>
       <c r="C4">
         <v>1170127</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>14256256</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0.91792185830557471</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>8.2078141694425247E-2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>